--- a/BalanceSheet/WAT_bal.xlsx
+++ b/BalanceSheet/WAT_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>27079000.0</v>
+        <v>304000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>18950000.0</v>
+        <v>327000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>2310000.0</v>
+        <v>344000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-29399000.0</v>
+        <v>344000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>52119000.0</v>
+        <v>321000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>368790000.0</v>
@@ -1806,19 +1806,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>93877000.0</v>
+        <v>72000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>12007000.0</v>
+        <v>60000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>50539000.0</v>
+        <v>50000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-15825000.0</v>
+        <v>61000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>10277000.0</v>
+        <v>49000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>64805000.0</v>
